--- a/assets/回课分组.xlsx
+++ b/assets/回课分组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college\CS\ics\assist-23fall\ICS-23-Fall\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83080E53-49CA-42CA-A3D7-D20CFD7EDFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68629CF6-6A8B-4E61-A307-9114153B6BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F0C0546B-CDE8-4DF5-A4AC-596625F346CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{F0C0546B-CDE8-4DF5-A4AC-596625F346CF}"/>
   </bookViews>
   <sheets>
     <sheet name="上周三本周一" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Bits and Bytes/Integers</t>
+  </si>
+  <si>
+    <t>Floating Point</t>
+  </si>
+  <si>
+    <t>Machine Prog: Basics</t>
+  </si>
+  <si>
+    <t>Machine Prog: Control</t>
+  </si>
+  <si>
+    <t>Machine Prog: Procedures</t>
+  </si>
+  <si>
+    <t>Machine Prog: Data</t>
+  </si>
+  <si>
+    <t>Machine Prog: Advanced</t>
+  </si>
+  <si>
+    <t>L3(attacklab) out</t>
+  </si>
+  <si>
+    <t>Processor Arch: ISA&amp;Logic</t>
+  </si>
+  <si>
+    <t>Processor Arch: Sequential</t>
+  </si>
+  <si>
+    <t>L4 (archlab) out</t>
+  </si>
+  <si>
+    <t>Processor Arch: Pipelined</t>
+  </si>
+  <si>
+    <t>The Memory Hierarchy</t>
+  </si>
+  <si>
+    <t>Cache Memories</t>
+  </si>
+  <si>
+    <t>L5 (cachelab) out</t>
+  </si>
+  <si>
+    <t>Program optimization</t>
+  </si>
+  <si>
+    <t>期中考试</t>
+  </si>
+  <si>
+    <t>ECF: Exceptions &amp; Processes</t>
+  </si>
+  <si>
+    <t>ECF: Signals &amp; Nonlocal Jumps</t>
+  </si>
+  <si>
+    <t>L6 (tshlab) out</t>
+  </si>
+  <si>
+    <t>System Level I/O</t>
+  </si>
+  <si>
+    <t>Virtual Memory: Concepts</t>
+  </si>
+  <si>
+    <t>Virtual Memory: Systems</t>
+  </si>
+  <si>
+    <t>L7(malloclab) out</t>
+  </si>
+  <si>
+    <t>Dynamic Memory Allocation</t>
+  </si>
+  <si>
+    <t>Network Programming I</t>
+  </si>
+  <si>
+    <t>Network Programming II</t>
+  </si>
+  <si>
+    <t>L8 (proxylab) out</t>
+  </si>
+  <si>
+    <t>Concurrent Programming</t>
+  </si>
+  <si>
+    <t>Synchronization: Basic</t>
+  </si>
+  <si>
+    <t>Synchronization: Advanced</t>
+  </si>
   <si>
     <t>节次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -37,8 +132,9 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -46,263 +142,123 @@
       </rPr>
       <t>（放假安排以学校通知为准）</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>周三小班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小班对应大班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LAB日程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overview</t>
-  </si>
-  <si>
-    <t>Bits and Bytes/Integers</t>
+  </si>
+  <si>
+    <t>回课分组</t>
   </si>
   <si>
     <t>大班1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floating Point</t>
   </si>
   <si>
     <t>L1 (datalab) out</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine Prog: Basics</t>
   </si>
   <si>
     <t>大班2/3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine Prog: Control</t>
-  </si>
-  <si>
-    <t>Machine Prog: Procedures</t>
   </si>
   <si>
     <t>大班4/5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>L2 (bomblab) out</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>国庆节放假</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine Prog: Data</t>
-  </si>
-  <si>
-    <t>Machine Prog: Advanced</t>
   </si>
   <si>
     <t>大班6/7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3(attacklab) out</t>
-  </si>
-  <si>
-    <t>Processor Arch: ISA&amp;Logic</t>
-  </si>
-  <si>
-    <t>Processor Arch: Sequential</t>
   </si>
   <si>
     <t>大班8/9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4 (archlab) out</t>
-  </si>
-  <si>
-    <t>Processor Arch: Pipelined</t>
-  </si>
-  <si>
-    <t>The Memory Hierarchy</t>
   </si>
   <si>
     <t>大班10/11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cache Memories</t>
-  </si>
-  <si>
-    <t>L5 (cachelab) out</t>
-  </si>
-  <si>
-    <t>Program optimization</t>
   </si>
   <si>
     <t>大班12/13/14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期中考试</t>
   </si>
   <si>
     <t>专题讲座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期中讲解</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Linking I</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Linking II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECF: Exceptions &amp; Processes</t>
-  </si>
-  <si>
-    <t>ECF: Signals &amp; Nonlocal Jumps</t>
   </si>
   <si>
     <t>大班18/19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L6 (tshlab) out</t>
-  </si>
-  <si>
-    <t>System Level I/O</t>
-  </si>
-  <si>
-    <t>Virtual Memory: Concepts</t>
   </si>
   <si>
     <t>大班20/21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Virtual Memory: Systems</t>
-  </si>
-  <si>
-    <t>L7(malloclab) out</t>
-  </si>
-  <si>
-    <t>Dynamic Memory Allocation</t>
   </si>
   <si>
     <t>大班22/23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Network Programming I</t>
-  </si>
-  <si>
-    <t>Network Programming II</t>
   </si>
   <si>
     <t>大班24/25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>L8 (proxylab) out</t>
-  </si>
-  <si>
-    <t>Concurrent Programming</t>
-  </si>
-  <si>
-    <t>Synchronization: Basic</t>
   </si>
   <si>
     <t>大班26/27/28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synchronization: Advanced</t>
   </si>
   <si>
     <t>期末复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期末习题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>期末核查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班2/3/4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班5/6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班7/8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班9/10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班11/12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班13/14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班17/18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班19/20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班21/22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班23/24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班25/26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大班27/28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回课分组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine Prog: Advanced</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -339,8 +295,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -349,30 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color rgb="FF4472C4"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -381,7 +324,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color rgb="FFDE3C36"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBFBFBF"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -390,6 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFA6A6A6"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -404,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -414,16 +374,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,47 +430,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D1201-DBD1-42FC-B642-A5A6B0A02C17}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -805,588 +814,575 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="14">
+        <v>45182</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C5" s="14">
+        <v>45189</v>
+      </c>
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44817</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <f>C3+7</f>
-        <v>44824</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="E5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <f>C5+7</f>
-        <v>44831</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14">
+        <v>45196</v>
+      </c>
+      <c r="D7" s="10">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="G7" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3">
-        <f>C7+14</f>
-        <v>44845</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
+        <v>45210</v>
+      </c>
+      <c r="D11" s="10">
         <v>4</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>20</v>
+      <c r="E11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="G11" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3">
-        <f>C11+7</f>
-        <v>44852</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14">
+        <v>45217</v>
+      </c>
+      <c r="D13" s="10">
         <v>5</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>24</v>
+      <c r="E13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="G13" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" ref="C15" si="0">C13+7</f>
-        <v>44859</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14">
+        <v>45224</v>
+      </c>
+      <c r="D15" s="10">
         <v>6</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="E15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8" t="s">
-        <v>29</v>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17" si="1">C15+7</f>
-        <v>44866</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14">
+        <v>45231</v>
+      </c>
+      <c r="D17" s="10">
         <v>7</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="E17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19" si="2">C17+7</f>
-        <v>44873</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="B19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14">
+        <v>45238</v>
+      </c>
+      <c r="D19" s="10">
         <v>8</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="8"/>
+      <c r="E19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21" si="3">C19+7</f>
-        <v>44880</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="B21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="14">
+        <v>45245</v>
+      </c>
+      <c r="D21" s="10">
         <v>9</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="8"/>
+      <c r="E21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23" si="4">C21+7</f>
-        <v>44887</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14">
+        <v>45252</v>
+      </c>
+      <c r="D23" s="10">
         <v>10</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>41</v>
+      <c r="E23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G23" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:C29" si="5">C23+7</f>
-        <v>44894</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14">
+        <v>45259</v>
+      </c>
+      <c r="D25" s="10">
         <v>11</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="8"/>
+      <c r="E25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8" t="s">
-        <v>46</v>
+      <c r="B26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:C31" si="6">C25+7</f>
-        <v>44901</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14">
+        <v>45266</v>
+      </c>
+      <c r="D27" s="10">
         <v>12</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="8"/>
+      <c r="E27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="12"/>
       <c r="G27" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="5"/>
-        <v>44908</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14">
+        <v>45273</v>
+      </c>
+      <c r="D29" s="10">
         <v>13</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>52</v>
+      <c r="E29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="G29" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="6"/>
-        <v>44915</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="14">
+        <v>45280</v>
+      </c>
+      <c r="D31" s="10">
         <v>14</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="9"/>
+      <c r="E31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="15"/>
       <c r="G31" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+      <c r="B32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="3">
-        <f>C31+7</f>
-        <v>44922</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="14">
+        <v>45287</v>
+      </c>
+      <c r="D33" s="10">
         <v>15</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="11" t="s">
         <v>59</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G33" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1394,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5193F0-9D1D-4BBA-9990-95CB12DD3B11}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1403,586 +1399,573 @@
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="12.58203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="14">
+        <v>45182</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C5" s="14">
+        <v>45189</v>
+      </c>
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44817</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <f>C3+7</f>
-        <v>44824</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="E5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <f>C5+7</f>
-        <v>44831</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14">
+        <v>45196</v>
+      </c>
+      <c r="D7" s="10">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
+      <c r="E7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="G7" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="3">
-        <f>C7+14</f>
-        <v>44845</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="B11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14">
+        <v>45210</v>
+      </c>
+      <c r="D11" s="10">
         <v>4</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>20</v>
+      <c r="E11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="G11" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3">
-        <f>C11+7</f>
-        <v>44852</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14">
+        <v>45217</v>
+      </c>
+      <c r="D13" s="10">
         <v>5</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>24</v>
+      <c r="E13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="G13" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" ref="C15" si="0">C13+7</f>
-        <v>44859</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14">
+        <v>45224</v>
+      </c>
+      <c r="D15" s="10">
         <v>6</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="E15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8" t="s">
-        <v>29</v>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17" si="1">C15+7</f>
-        <v>44866</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14">
+        <v>45231</v>
+      </c>
+      <c r="D17" s="10">
         <v>7</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="E17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19" si="2">C17+7</f>
-        <v>44873</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="B19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14">
+        <v>45238</v>
+      </c>
+      <c r="D19" s="10">
         <v>8</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="8"/>
+      <c r="E19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21" si="3">C19+7</f>
-        <v>44880</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="B21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="14">
+        <v>45245</v>
+      </c>
+      <c r="D21" s="10">
         <v>9</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="8"/>
+      <c r="E21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23" si="4">C21+7</f>
-        <v>44887</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14">
+        <v>45252</v>
+      </c>
+      <c r="D23" s="10">
         <v>10</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>41</v>
+      <c r="E23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G23" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:C29" si="5">C23+7</f>
-        <v>44894</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="14">
+        <v>45259</v>
+      </c>
+      <c r="D25" s="10">
         <v>11</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="8"/>
+      <c r="E25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="12"/>
       <c r="G25" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8" t="s">
-        <v>46</v>
+      <c r="B26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:C31" si="6">C25+7</f>
-        <v>44901</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14">
+        <v>45266</v>
+      </c>
+      <c r="D27" s="10">
         <v>12</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="8"/>
+      <c r="E27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="12"/>
       <c r="G27" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="5"/>
-        <v>44908</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="B29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14">
+        <v>45273</v>
+      </c>
+      <c r="D29" s="10">
         <v>13</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>52</v>
+      <c r="E29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="G29" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="6"/>
-        <v>44915</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="14">
+        <v>45280</v>
+      </c>
+      <c r="D31" s="10">
         <v>14</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="9"/>
+      <c r="E31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="15"/>
       <c r="G31" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+      <c r="B32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="3">
-        <f>C31+7</f>
-        <v>44922</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="B33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="14">
+        <v>45287</v>
+      </c>
+      <c r="D33" s="10">
         <v>15</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="11" t="s">
         <v>59</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="G33" s="13"/>
     </row>
